--- a/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['4', '51']</t>
   </si>
   <si>
+    <t>['41', '45+1', '55', '68']</t>
+  </si>
+  <si>
+    <t>['57', '90+1']</t>
+  </si>
+  <si>
     <t>['28', '40', '59']</t>
   </si>
   <si>
@@ -770,6 +776,9 @@
   </si>
   <si>
     <t>['6', '68', '90+1']</t>
+  </si>
+  <si>
+    <t>['52', '81']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1757,7 +1766,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1847,7 +1856,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2035,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT5">
         <v>1.07</v>
@@ -2330,7 +2339,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2608,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
         <v>1.29</v>
@@ -2712,7 +2721,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2802,7 +2811,7 @@
         <v>1.07</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3094,7 +3103,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3181,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3285,7 +3294,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3375,7 +3384,7 @@
         <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU12">
         <v>1.21</v>
@@ -3563,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT13">
         <v>1.29</v>
@@ -3667,7 +3676,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3757,7 +3766,7 @@
         <v>0.92</v>
       </c>
       <c r="AT14">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU14">
         <v>1.63</v>
@@ -4049,7 +4058,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4139,7 +4148,7 @@
         <v>1.21</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU16">
         <v>1.96</v>
@@ -4240,7 +4249,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4327,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>1.69</v>
@@ -4431,7 +4440,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4813,7 +4822,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5004,7 +5013,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5091,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT21">
         <v>1.71</v>
@@ -5195,7 +5204,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5285,7 +5294,7 @@
         <v>1.71</v>
       </c>
       <c r="AT22">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU22">
         <v>1.38</v>
@@ -5386,7 +5395,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5577,7 +5586,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5959,7 +5968,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6049,7 +6058,7 @@
         <v>2.42</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU26">
         <v>1.22</v>
@@ -6150,7 +6159,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6237,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>1.42</v>
@@ -6341,7 +6350,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6622,7 +6631,7 @@
         <v>1.07</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6723,7 +6732,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6810,7 +6819,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT30">
         <v>0.62</v>
@@ -6914,7 +6923,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7001,7 +7010,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT31">
         <v>1.07</v>
@@ -7105,7 +7114,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7192,7 +7201,7 @@
         <v>0.33</v>
       </c>
       <c r="AS32">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT32">
         <v>0.62</v>
@@ -7296,7 +7305,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7383,10 +7392,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU33">
         <v>1.35</v>
@@ -7577,7 +7586,7 @@
         <v>2.42</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU34">
         <v>1.28</v>
@@ -7678,7 +7687,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7765,10 +7774,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU35">
         <v>1.24</v>
@@ -7869,7 +7878,7 @@
         <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8060,7 +8069,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8251,7 +8260,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8442,7 +8451,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8824,7 +8833,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9015,7 +9024,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9206,7 +9215,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9397,7 +9406,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9678,7 +9687,7 @@
         <v>0.92</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU45">
         <v>1.39</v>
@@ -9779,7 +9788,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9869,7 +9878,7 @@
         <v>1.21</v>
       </c>
       <c r="AT46">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU46">
         <v>1.9</v>
@@ -9970,7 +9979,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10057,7 +10066,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT47">
         <v>1.36</v>
@@ -10248,7 +10257,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT48">
         <v>1.71</v>
@@ -10352,7 +10361,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10442,7 +10451,7 @@
         <v>1.71</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>1.34</v>
@@ -10925,7 +10934,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11012,7 +11021,7 @@
         <v>1.8</v>
       </c>
       <c r="AS52">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT52">
         <v>1.69</v>
@@ -11116,7 +11125,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11307,7 +11316,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11397,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU54">
         <v>1.55</v>
@@ -11498,7 +11507,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11585,7 +11594,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
         <v>0.62</v>
@@ -11880,7 +11889,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12158,7 +12167,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
         <v>1.71</v>
@@ -12262,7 +12271,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12352,7 +12361,7 @@
         <v>1.07</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU59">
         <v>0.95</v>
@@ -12731,10 +12740,10 @@
         <v>0.8</v>
       </c>
       <c r="AS61">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU61">
         <v>1.78</v>
@@ -12835,7 +12844,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13026,7 +13035,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13113,10 +13122,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT63">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU63">
         <v>1.78</v>
@@ -13217,7 +13226,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13307,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU64">
         <v>1.49</v>
@@ -13408,7 +13417,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13790,7 +13799,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13981,7 +13990,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14172,7 +14181,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14262,7 +14271,7 @@
         <v>1.21</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU69">
         <v>1.79</v>
@@ -14363,7 +14372,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14450,7 +14459,7 @@
         <v>0.71</v>
       </c>
       <c r="AS70">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT70">
         <v>1.36</v>
@@ -14554,7 +14563,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14832,10 +14841,10 @@
         <v>0.71</v>
       </c>
       <c r="AS72">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU72">
         <v>1.65</v>
@@ -15127,7 +15136,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15214,10 +15223,10 @@
         <v>1.29</v>
       </c>
       <c r="AS74">
+        <v>1.5</v>
+      </c>
+      <c r="AT74">
         <v>1.38</v>
-      </c>
-      <c r="AT74">
-        <v>1.5</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -15318,7 +15327,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15596,10 +15605,10 @@
         <v>2.14</v>
       </c>
       <c r="AS76">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT76">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU76">
         <v>1.53</v>
@@ -15891,7 +15900,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -16936,7 +16945,7 @@
         <v>1.07</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU83">
         <v>1.05</v>
@@ -17037,7 +17046,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17124,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT84">
         <v>1.42</v>
@@ -17228,7 +17237,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17315,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT85">
         <v>1.07</v>
@@ -17419,7 +17428,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17610,7 +17619,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17891,7 +17900,7 @@
         <v>2.42</v>
       </c>
       <c r="AT88">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU88">
         <v>1.33</v>
@@ -17992,7 +18001,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>12</v>
@@ -18270,7 +18279,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT90">
         <v>1.29</v>
@@ -18464,7 +18473,7 @@
         <v>1.21</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU91">
         <v>1.71</v>
@@ -18565,7 +18574,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18652,7 +18661,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT92">
         <v>0.62</v>
@@ -18756,7 +18765,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18846,7 +18855,7 @@
         <v>1.07</v>
       </c>
       <c r="AT93">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU93">
         <v>1.22</v>
@@ -18947,7 +18956,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19138,7 +19147,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19225,7 +19234,7 @@
         <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>1.42</v>
@@ -19329,7 +19338,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19520,7 +19529,7 @@
         <v>82</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19902,7 +19911,7 @@
         <v>129</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20180,10 +20189,10 @@
         <v>0.78</v>
       </c>
       <c r="AS100">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU100">
         <v>1.51</v>
@@ -20284,7 +20293,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20475,7 +20484,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20753,10 +20762,10 @@
         <v>1.67</v>
       </c>
       <c r="AS103">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU103">
         <v>1.6</v>
@@ -20944,7 +20953,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT104">
         <v>0.62</v>
@@ -21138,7 +21147,7 @@
         <v>2.42</v>
       </c>
       <c r="AT105">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU105">
         <v>1.31</v>
@@ -21326,10 +21335,10 @@
         <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU106">
         <v>1.53</v>
@@ -21621,7 +21630,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21708,7 +21717,7 @@
         <v>1.82</v>
       </c>
       <c r="AS108">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT108">
         <v>1.71</v>
@@ -21812,7 +21821,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22003,7 +22012,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22194,7 +22203,7 @@
         <v>114</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22385,7 +22394,7 @@
         <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22475,7 +22484,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU112">
         <v>1.35</v>
@@ -22576,7 +22585,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22767,7 +22776,7 @@
         <v>82</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22857,7 +22866,7 @@
         <v>0.92</v>
       </c>
       <c r="AT114">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU114">
         <v>1.16</v>
@@ -22958,7 +22967,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23149,7 +23158,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23427,7 +23436,7 @@
         <v>1.25</v>
       </c>
       <c r="AS117">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT117">
         <v>1.07</v>
@@ -23531,7 +23540,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23618,7 +23627,7 @@
         <v>1.82</v>
       </c>
       <c r="AS118">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT118">
         <v>1.69</v>
@@ -23722,7 +23731,7 @@
         <v>82</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24194,7 +24203,7 @@
         <v>0.92</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU121">
         <v>1.13</v>
@@ -24295,7 +24304,7 @@
         <v>82</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24486,7 +24495,7 @@
         <v>82</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24677,7 +24686,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24767,7 +24776,7 @@
         <v>2.42</v>
       </c>
       <c r="AT124">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU124">
         <v>1.27</v>
@@ -24958,7 +24967,7 @@
         <v>1.71</v>
       </c>
       <c r="AT125">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU125">
         <v>1.34</v>
@@ -25632,7 +25641,7 @@
         <v>82</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25823,7 +25832,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -25910,7 +25919,7 @@
         <v>1.15</v>
       </c>
       <c r="AS130">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT130">
         <v>1.07</v>
@@ -26104,7 +26113,7 @@
         <v>1.07</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU131">
         <v>1.16</v>
@@ -26205,7 +26214,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26396,7 +26405,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>11</v>
@@ -26483,7 +26492,7 @@
         <v>1.15</v>
       </c>
       <c r="AS133">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT133">
         <v>1.29</v>
@@ -26538,6 +26547,579 @@
       </c>
       <c r="BK133">
         <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2470864</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F134">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" t="s">
+        <v>67</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134" t="s">
+        <v>173</v>
+      </c>
+      <c r="P134" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>2.3</v>
+      </c>
+      <c r="U134">
+        <v>2.3</v>
+      </c>
+      <c r="V134">
+        <v>4</v>
+      </c>
+      <c r="W134">
+        <v>1.32</v>
+      </c>
+      <c r="X134">
+        <v>3.22</v>
+      </c>
+      <c r="Y134">
+        <v>2.5</v>
+      </c>
+      <c r="Z134">
+        <v>1.48</v>
+      </c>
+      <c r="AA134">
+        <v>5.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.13</v>
+      </c>
+      <c r="AC134">
+        <v>1.9</v>
+      </c>
+      <c r="AD134">
+        <v>3.5</v>
+      </c>
+      <c r="AE134">
+        <v>3.45</v>
+      </c>
+      <c r="AF134">
+        <v>1.03</v>
+      </c>
+      <c r="AG134">
+        <v>14.75</v>
+      </c>
+      <c r="AH134">
+        <v>1.22</v>
+      </c>
+      <c r="AI134">
+        <v>4</v>
+      </c>
+      <c r="AJ134">
+        <v>1.61</v>
+      </c>
+      <c r="AK134">
+        <v>2.05</v>
+      </c>
+      <c r="AL134">
+        <v>1.65</v>
+      </c>
+      <c r="AM134">
+        <v>2.15</v>
+      </c>
+      <c r="AN134">
+        <v>1.2</v>
+      </c>
+      <c r="AO134">
+        <v>1.2</v>
+      </c>
+      <c r="AP134">
+        <v>1.9</v>
+      </c>
+      <c r="AQ134">
+        <v>1.38</v>
+      </c>
+      <c r="AR134">
+        <v>1.5</v>
+      </c>
+      <c r="AS134">
+        <v>1.5</v>
+      </c>
+      <c r="AT134">
+        <v>1.38</v>
+      </c>
+      <c r="AU134">
+        <v>1.66</v>
+      </c>
+      <c r="AV134">
+        <v>1.16</v>
+      </c>
+      <c r="AW134">
+        <v>2.82</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>12</v>
+      </c>
+      <c r="BG134">
+        <v>3</v>
+      </c>
+      <c r="BH134">
+        <v>5</v>
+      </c>
+      <c r="BI134">
+        <v>6</v>
+      </c>
+      <c r="BJ134">
+        <v>17</v>
+      </c>
+      <c r="BK134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2470866</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F135">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>68</v>
+      </c>
+      <c r="H135" t="s">
+        <v>72</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>112</v>
+      </c>
+      <c r="P135" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>2.25</v>
+      </c>
+      <c r="V135">
+        <v>3.4</v>
+      </c>
+      <c r="W135">
+        <v>1.31</v>
+      </c>
+      <c r="X135">
+        <v>3.28</v>
+      </c>
+      <c r="Y135">
+        <v>2.5</v>
+      </c>
+      <c r="Z135">
+        <v>1.48</v>
+      </c>
+      <c r="AA135">
+        <v>5.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.13</v>
+      </c>
+      <c r="AC135">
+        <v>2.2</v>
+      </c>
+      <c r="AD135">
+        <v>3.3</v>
+      </c>
+      <c r="AE135">
+        <v>2.95</v>
+      </c>
+      <c r="AF135">
+        <v>1.03</v>
+      </c>
+      <c r="AG135">
+        <v>15.75</v>
+      </c>
+      <c r="AH135">
+        <v>1.22</v>
+      </c>
+      <c r="AI135">
+        <v>4</v>
+      </c>
+      <c r="AJ135">
+        <v>1.6</v>
+      </c>
+      <c r="AK135">
+        <v>2.1</v>
+      </c>
+      <c r="AL135">
+        <v>1.57</v>
+      </c>
+      <c r="AM135">
+        <v>2.3</v>
+      </c>
+      <c r="AN135">
+        <v>1.3</v>
+      </c>
+      <c r="AO135">
+        <v>1.22</v>
+      </c>
+      <c r="AP135">
+        <v>1.65</v>
+      </c>
+      <c r="AQ135">
+        <v>1.54</v>
+      </c>
+      <c r="AR135">
+        <v>1.62</v>
+      </c>
+      <c r="AS135">
+        <v>1.43</v>
+      </c>
+      <c r="AT135">
+        <v>1.71</v>
+      </c>
+      <c r="AU135">
+        <v>1.53</v>
+      </c>
+      <c r="AV135">
+        <v>1.13</v>
+      </c>
+      <c r="AW135">
+        <v>2.66</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>1.22</v>
+      </c>
+      <c r="BB135">
+        <v>1.42</v>
+      </c>
+      <c r="BC135">
+        <v>1.74</v>
+      </c>
+      <c r="BD135">
+        <v>2.23</v>
+      </c>
+      <c r="BE135">
+        <v>3</v>
+      </c>
+      <c r="BF135">
+        <v>4</v>
+      </c>
+      <c r="BG135">
+        <v>7</v>
+      </c>
+      <c r="BH135">
+        <v>8</v>
+      </c>
+      <c r="BI135">
+        <v>1</v>
+      </c>
+      <c r="BJ135">
+        <v>12</v>
+      </c>
+      <c r="BK135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2470867</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F136">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>74</v>
+      </c>
+      <c r="H136" t="s">
+        <v>65</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>174</v>
+      </c>
+      <c r="P136" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>2.38</v>
+      </c>
+      <c r="V136">
+        <v>5.5</v>
+      </c>
+      <c r="W136">
+        <v>1.3</v>
+      </c>
+      <c r="X136">
+        <v>3.34</v>
+      </c>
+      <c r="Y136">
+        <v>2.4</v>
+      </c>
+      <c r="Z136">
+        <v>1.51</v>
+      </c>
+      <c r="AA136">
+        <v>5</v>
+      </c>
+      <c r="AB136">
+        <v>1.14</v>
+      </c>
+      <c r="AC136">
+        <v>1.5</v>
+      </c>
+      <c r="AD136">
+        <v>4.2</v>
+      </c>
+      <c r="AE136">
+        <v>5.25</v>
+      </c>
+      <c r="AF136">
+        <v>1.02</v>
+      </c>
+      <c r="AG136">
+        <v>17.25</v>
+      </c>
+      <c r="AH136">
+        <v>1.2</v>
+      </c>
+      <c r="AI136">
+        <v>4.33</v>
+      </c>
+      <c r="AJ136">
+        <v>1.57</v>
+      </c>
+      <c r="AK136">
+        <v>2.15</v>
+      </c>
+      <c r="AL136">
+        <v>1.75</v>
+      </c>
+      <c r="AM136">
+        <v>2</v>
+      </c>
+      <c r="AN136">
+        <v>1.09</v>
+      </c>
+      <c r="AO136">
+        <v>1.16</v>
+      </c>
+      <c r="AP136">
+        <v>2.35</v>
+      </c>
+      <c r="AQ136">
+        <v>2.36</v>
+      </c>
+      <c r="AR136">
+        <v>1</v>
+      </c>
+      <c r="AS136">
+        <v>2.42</v>
+      </c>
+      <c r="AT136">
+        <v>0.93</v>
+      </c>
+      <c r="AU136">
+        <v>1.52</v>
+      </c>
+      <c r="AV136">
+        <v>1.06</v>
+      </c>
+      <c r="AW136">
+        <v>2.58</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>1.88</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>3</v>
+      </c>
+      <c r="BH136">
+        <v>5</v>
+      </c>
+      <c r="BI136">
+        <v>2</v>
+      </c>
+      <c r="BJ136">
+        <v>10</v>
+      </c>
+      <c r="BK136">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>0.62</v>
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT12" t="n">
         <v>0.93</v>
@@ -3339,7 +3339,7 @@
         <v>0.92</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU14" t="n">
         <v>1.63</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU15" t="n">
         <v>1.16</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>1.38</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU17" t="n">
         <v>1.8</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU18" t="n">
         <v>1.72</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>1.29</v>
@@ -5369,7 +5369,7 @@
         <v>0.92</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU24" t="n">
         <v>1.78</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU25" t="n">
         <v>1.39</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT26" t="n">
         <v>1.38</v>
@@ -6790,7 +6790,7 @@
         <v>2.42</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.91</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT34" t="n">
         <v>0.93</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.24</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
         <v>1.71</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU39" t="n">
         <v>2.05</v>
@@ -8614,7 +8614,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
         <v>1.71</v>
@@ -8817,10 +8817,10 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.25</v>
@@ -9023,7 +9023,7 @@
         <v>1.07</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU42" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>1.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU44" t="n">
         <v>1.03</v>
@@ -9832,10 +9832,10 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -10038,7 +10038,7 @@
         <v>1.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU47" t="n">
         <v>1.58</v>
@@ -10441,7 +10441,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
         <v>1.38</v>
@@ -10647,7 +10647,7 @@
         <v>1.07</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.57</v>
@@ -11053,7 +11053,7 @@
         <v>1.43</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.55</v>
@@ -11862,10 +11862,10 @@
         <v>0.8</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.37</v>
@@ -12674,7 +12674,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT60" t="n">
         <v>1.42</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU62" t="n">
         <v>1.91</v>
@@ -13286,7 +13286,7 @@
         <v>1.43</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU63" t="n">
         <v>1.78</v>
@@ -13692,7 +13692,7 @@
         <v>0.92</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU65" t="n">
         <v>1.32</v>
@@ -13892,7 +13892,7 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT66" t="n">
         <v>0.62</v>
@@ -14098,7 +14098,7 @@
         <v>1.07</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU67" t="n">
         <v>0.95</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT69" t="n">
         <v>0.93</v>
@@ -14707,7 +14707,7 @@
         <v>2.42</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU70" t="n">
         <v>1.65</v>
@@ -14907,7 +14907,7 @@
         <v>1.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.29</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT75" t="n">
         <v>1.42</v>
@@ -15925,7 +15925,7 @@
         <v>2.42</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU76" t="n">
         <v>1.53</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU77" t="n">
         <v>1.33</v>
@@ -16331,7 +16331,7 @@
         <v>1.07</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU78" t="n">
         <v>0.96</v>
@@ -16734,10 +16734,10 @@
         <v>1.14</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -16937,10 +16937,10 @@
         <v>1.86</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU81" t="n">
         <v>1.37</v>
@@ -17752,7 +17752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18158,7 +18158,7 @@
         <v>1.07</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU87" t="n">
         <v>1.28</v>
@@ -18358,10 +18358,10 @@
         <v>1.88</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
         <v>1.38</v>
@@ -19376,7 +19376,7 @@
         <v>1.07</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.22</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.49</v>
@@ -20185,10 +20185,10 @@
         <v>1.1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.41</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT98" t="n">
         <v>1.71</v>
@@ -20594,7 +20594,7 @@
         <v>1.07</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU99" t="n">
         <v>1.19</v>
@@ -21809,7 +21809,7 @@
         <v>0.7</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT105" t="n">
         <v>0.93</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU106" t="n">
         <v>1.53</v>
@@ -22215,7 +22215,7 @@
         <v>0.45</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT107" t="n">
         <v>0.62</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU109" t="n">
         <v>1.44</v>
@@ -22827,7 +22827,7 @@
         <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU110" t="n">
         <v>1.1</v>
@@ -23030,7 +23030,7 @@
         <v>1.07</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU111" t="n">
         <v>1.19</v>
@@ -23230,7 +23230,7 @@
         <v>0.64</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>0.93</v>
@@ -23433,10 +23433,10 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU113" t="n">
         <v>1.27</v>
@@ -23639,7 +23639,7 @@
         <v>0.92</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU114" t="n">
         <v>1.16</v>
@@ -23839,7 +23839,7 @@
         <v>1.1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT115" t="n">
         <v>1.29</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU116" t="n">
         <v>1.4</v>
@@ -24248,7 +24248,7 @@
         <v>1.43</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.54</v>
@@ -24451,7 +24451,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.58</v>
@@ -25263,7 +25263,7 @@
         <v>0.92</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU122" t="n">
         <v>1.14</v>
@@ -25666,7 +25666,7 @@
         <v>1.36</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT124" t="n">
         <v>1.38</v>
@@ -25869,10 +25869,10 @@
         <v>1.75</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU125" t="n">
         <v>1.34</v>
@@ -26072,10 +26072,10 @@
         <v>1.75</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU126" t="n">
         <v>1.56</v>
@@ -26275,7 +26275,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT127" t="n">
         <v>1.29</v>
@@ -26681,7 +26681,7 @@
         <v>1.62</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT129" t="n">
         <v>1.71</v>
@@ -26887,7 +26887,7 @@
         <v>2.42</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU130" t="n">
         <v>1.55</v>
@@ -28105,7 +28105,7 @@
         <v>1.43</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.53</v>
@@ -28157,6 +28157,818 @@
       </c>
       <c r="BK136" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2470871</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>29</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Annan Athletic</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['8', '84']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>8</v>
+      </c>
+      <c r="R137" t="n">
+        <v>5</v>
+      </c>
+      <c r="S137" t="n">
+        <v>13</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2470872</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>29</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Stirling Albion</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>9</v>
+      </c>
+      <c r="R138" t="n">
+        <v>6</v>
+      </c>
+      <c r="S138" t="n">
+        <v>15</v>
+      </c>
+      <c r="T138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2470868</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>29</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose Athletic</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>13</v>
+      </c>
+      <c r="R139" t="n">
+        <v>8</v>
+      </c>
+      <c r="S139" t="n">
+        <v>21</v>
+      </c>
+      <c r="T139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2470869</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>29</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Albion Rovers</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>5</v>
+      </c>
+      <c r="N140" t="n">
+        <v>6</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['7', '12', '32', '39', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" t="n">
+        <v>9</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['8', '84']</t>
+  </si>
+  <si>
+    <t>['70', '78']</t>
   </si>
   <si>
     <t>['28', '40', '59']</t>
@@ -1149,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1775,7 +1778,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2348,7 +2351,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2435,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT7">
         <v>1.71</v>
@@ -2730,7 +2733,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3011,7 +3014,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3112,7 +3115,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3199,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT11">
         <v>1.38</v>
@@ -3303,7 +3306,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3581,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT13">
         <v>1.29</v>
@@ -3685,7 +3688,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3772,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT14">
         <v>1.67</v>
@@ -4067,7 +4070,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4258,7 +4261,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4449,7 +4452,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4730,7 +4733,7 @@
         <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4831,7 +4834,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4921,7 +4924,7 @@
         <v>1.07</v>
       </c>
       <c r="AT20">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU20">
         <v>1.7</v>
@@ -5022,7 +5025,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5213,7 +5216,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5404,7 +5407,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5595,7 +5598,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5682,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT24">
         <v>1.27</v>
@@ -5977,7 +5980,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6168,7 +6171,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6258,7 +6261,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU27">
         <v>1.39</v>
@@ -6359,7 +6362,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6741,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6831,7 +6834,7 @@
         <v>1.43</v>
       </c>
       <c r="AT30">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU30">
         <v>1.42</v>
@@ -6932,7 +6935,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7019,7 +7022,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT31">
         <v>1.2</v>
@@ -7123,7 +7126,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7210,10 +7213,10 @@
         <v>0.33</v>
       </c>
       <c r="AS32">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT32">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU32">
         <v>1.45</v>
@@ -7314,7 +7317,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7696,7 +7699,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7887,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7974,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT36">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU36">
         <v>1.52</v>
@@ -8078,7 +8081,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8269,7 +8272,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8460,7 +8463,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8842,7 +8845,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9033,7 +9036,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9224,7 +9227,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9415,7 +9418,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9693,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT45">
         <v>0.93</v>
@@ -9797,7 +9800,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9988,7 +9991,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10266,7 +10269,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT48">
         <v>1.71</v>
@@ -10370,7 +10373,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10943,7 +10946,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11134,7 +11137,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11224,7 +11227,7 @@
         <v>1.07</v>
       </c>
       <c r="AT53">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU53">
         <v>1.36</v>
@@ -11325,7 +11328,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11516,7 +11519,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11606,7 +11609,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU55">
         <v>1.54</v>
@@ -11898,7 +11901,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11985,7 +11988,7 @@
         <v>1.8</v>
       </c>
       <c r="AS57">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT57">
         <v>1.29</v>
@@ -12280,7 +12283,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12561,7 +12564,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU60">
         <v>1.39</v>
@@ -12749,7 +12752,7 @@
         <v>0.8</v>
       </c>
       <c r="AS61">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT61">
         <v>0.93</v>
@@ -12853,7 +12856,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13044,7 +13047,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13235,7 +13238,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13426,7 +13429,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13513,7 +13516,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT65">
         <v>1.64</v>
@@ -13707,7 +13710,7 @@
         <v>2.23</v>
       </c>
       <c r="AT66">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU66">
         <v>1.28</v>
@@ -13808,7 +13811,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13999,7 +14002,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14190,7 +14193,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14381,7 +14384,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14468,7 +14471,7 @@
         <v>0.71</v>
       </c>
       <c r="AS70">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT70">
         <v>1.27</v>
@@ -14572,7 +14575,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15041,10 +15044,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT73">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU73">
         <v>1.23</v>
@@ -15145,7 +15148,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15336,7 +15339,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15426,7 +15429,7 @@
         <v>2.23</v>
       </c>
       <c r="AT75">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15614,7 +15617,7 @@
         <v>2.14</v>
       </c>
       <c r="AS76">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT76">
         <v>1.67</v>
@@ -15909,7 +15912,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17055,7 +17058,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17145,7 +17148,7 @@
         <v>1.43</v>
       </c>
       <c r="AT84">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU84">
         <v>1.69</v>
@@ -17246,7 +17249,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17437,7 +17440,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17527,7 +17530,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17628,7 +17631,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18010,7 +18013,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>12</v>
@@ -18097,7 +18100,7 @@
         <v>1.89</v>
       </c>
       <c r="AS89">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT89">
         <v>1.71</v>
@@ -18288,7 +18291,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT90">
         <v>1.29</v>
@@ -18583,7 +18586,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18673,7 +18676,7 @@
         <v>1.43</v>
       </c>
       <c r="AT92">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU92">
         <v>1.66</v>
@@ -18774,7 +18777,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18965,7 +18968,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19156,7 +19159,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19246,7 +19249,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU95">
         <v>1.53</v>
@@ -19347,7 +19350,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19538,7 +19541,7 @@
         <v>82</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19920,7 +19923,7 @@
         <v>129</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20302,7 +20305,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20392,7 +20395,7 @@
         <v>1.07</v>
       </c>
       <c r="AT101">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU101">
         <v>1.09</v>
@@ -20493,7 +20496,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20580,10 +20583,10 @@
         <v>1.44</v>
       </c>
       <c r="AS102">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT102">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU102">
         <v>1.19</v>
@@ -20962,10 +20965,10 @@
         <v>0.5</v>
       </c>
       <c r="AS104">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT104">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU104">
         <v>1.52</v>
@@ -21538,7 +21541,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU107">
         <v>1.63</v>
@@ -21639,7 +21642,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21830,7 +21833,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22021,7 +22024,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22212,7 +22215,7 @@
         <v>114</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22403,7 +22406,7 @@
         <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22594,7 +22597,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22785,7 +22788,7 @@
         <v>82</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22872,7 +22875,7 @@
         <v>1.64</v>
       </c>
       <c r="AS114">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT114">
         <v>1.67</v>
@@ -22976,7 +22979,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23167,7 +23170,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23549,7 +23552,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23740,7 +23743,7 @@
         <v>82</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23830,7 +23833,7 @@
         <v>1.07</v>
       </c>
       <c r="AT119">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU119">
         <v>1.17</v>
@@ -24209,7 +24212,7 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT121">
         <v>1.38</v>
@@ -24313,7 +24316,7 @@
         <v>82</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24400,7 +24403,7 @@
         <v>1.23</v>
       </c>
       <c r="AS122">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT122">
         <v>1.27</v>
@@ -24504,7 +24507,7 @@
         <v>82</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24695,7 +24698,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25549,7 +25552,7 @@
         <v>1</v>
       </c>
       <c r="AT128">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25650,7 +25653,7 @@
         <v>82</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25841,7 +25844,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -25928,7 +25931,7 @@
         <v>1.15</v>
       </c>
       <c r="AS130">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT130">
         <v>1.2</v>
@@ -26223,7 +26226,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26313,7 +26316,7 @@
         <v>1.07</v>
       </c>
       <c r="AT132">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU132">
         <v>1.13</v>
@@ -26414,7 +26417,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>11</v>
@@ -26605,7 +26608,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26692,7 +26695,7 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT134">
         <v>0.93</v>
@@ -26987,7 +26990,7 @@
         <v>112</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27369,7 +27372,7 @@
         <v>94</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27560,7 +27563,7 @@
         <v>118</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q139">
         <v>13</v>
@@ -27893,6 +27896,388 @@
       </c>
       <c r="BK140">
         <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2470863</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F141">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>69</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>82</v>
+      </c>
+      <c r="P141" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+      <c r="S141">
+        <v>8</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>2.2</v>
+      </c>
+      <c r="V141">
+        <v>3.2</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>3</v>
+      </c>
+      <c r="Y141">
+        <v>2.65</v>
+      </c>
+      <c r="Z141">
+        <v>1.43</v>
+      </c>
+      <c r="AA141">
+        <v>6</v>
+      </c>
+      <c r="AB141">
+        <v>1.11</v>
+      </c>
+      <c r="AC141">
+        <v>2.5</v>
+      </c>
+      <c r="AD141">
+        <v>3.1</v>
+      </c>
+      <c r="AE141">
+        <v>2.63</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>13</v>
+      </c>
+      <c r="AH141">
+        <v>1.25</v>
+      </c>
+      <c r="AI141">
+        <v>3.6</v>
+      </c>
+      <c r="AJ141">
+        <v>1.98</v>
+      </c>
+      <c r="AK141">
+        <v>1.88</v>
+      </c>
+      <c r="AL141">
+        <v>1.65</v>
+      </c>
+      <c r="AM141">
+        <v>2.15</v>
+      </c>
+      <c r="AN141">
+        <v>1.4</v>
+      </c>
+      <c r="AO141">
+        <v>1.22</v>
+      </c>
+      <c r="AP141">
+        <v>1.53</v>
+      </c>
+      <c r="AQ141">
+        <v>0.92</v>
+      </c>
+      <c r="AR141">
+        <v>0.62</v>
+      </c>
+      <c r="AS141">
+        <v>0.86</v>
+      </c>
+      <c r="AT141">
+        <v>0.79</v>
+      </c>
+      <c r="AU141">
+        <v>1.13</v>
+      </c>
+      <c r="AV141">
+        <v>1.26</v>
+      </c>
+      <c r="AW141">
+        <v>2.39</v>
+      </c>
+      <c r="AX141">
+        <v>1.76</v>
+      </c>
+      <c r="AY141">
+        <v>5.75</v>
+      </c>
+      <c r="AZ141">
+        <v>2.4</v>
+      </c>
+      <c r="BA141">
+        <v>1.28</v>
+      </c>
+      <c r="BB141">
+        <v>1.56</v>
+      </c>
+      <c r="BC141">
+        <v>1.98</v>
+      </c>
+      <c r="BD141">
+        <v>2.41</v>
+      </c>
+      <c r="BE141">
+        <v>3.5</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>6</v>
+      </c>
+      <c r="BH141">
+        <v>16</v>
+      </c>
+      <c r="BI141">
+        <v>5</v>
+      </c>
+      <c r="BJ141">
+        <v>22</v>
+      </c>
+      <c r="BK141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2470812</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F142">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>73</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>176</v>
+      </c>
+      <c r="P142" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q142">
+        <v>6</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>8</v>
+      </c>
+      <c r="T142">
+        <v>2.34</v>
+      </c>
+      <c r="U142">
+        <v>2.22</v>
+      </c>
+      <c r="V142">
+        <v>4.62</v>
+      </c>
+      <c r="W142">
+        <v>1.36</v>
+      </c>
+      <c r="X142">
+        <v>3</v>
+      </c>
+      <c r="Y142">
+        <v>2.65</v>
+      </c>
+      <c r="Z142">
+        <v>1.43</v>
+      </c>
+      <c r="AA142">
+        <v>7</v>
+      </c>
+      <c r="AB142">
+        <v>1.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.73</v>
+      </c>
+      <c r="AD142">
+        <v>3.5</v>
+      </c>
+      <c r="AE142">
+        <v>4.33</v>
+      </c>
+      <c r="AF142">
+        <v>1.04</v>
+      </c>
+      <c r="AG142">
+        <v>10</v>
+      </c>
+      <c r="AH142">
+        <v>1.25</v>
+      </c>
+      <c r="AI142">
+        <v>3.6</v>
+      </c>
+      <c r="AJ142">
+        <v>1.83</v>
+      </c>
+      <c r="AK142">
+        <v>1.93</v>
+      </c>
+      <c r="AL142">
+        <v>1.72</v>
+      </c>
+      <c r="AM142">
+        <v>2.05</v>
+      </c>
+      <c r="AN142">
+        <v>1.2</v>
+      </c>
+      <c r="AO142">
+        <v>1.22</v>
+      </c>
+      <c r="AP142">
+        <v>1.83</v>
+      </c>
+      <c r="AQ142">
+        <v>2.42</v>
+      </c>
+      <c r="AR142">
+        <v>1.42</v>
+      </c>
+      <c r="AS142">
+        <v>2.46</v>
+      </c>
+      <c r="AT142">
+        <v>1.31</v>
+      </c>
+      <c r="AU142">
+        <v>1.52</v>
+      </c>
+      <c r="AV142">
+        <v>1.17</v>
+      </c>
+      <c r="AW142">
+        <v>2.69</v>
+      </c>
+      <c r="AX142">
+        <v>1.28</v>
+      </c>
+      <c r="AY142">
+        <v>6.75</v>
+      </c>
+      <c r="AZ142">
+        <v>4.05</v>
+      </c>
+      <c r="BA142">
+        <v>1.19</v>
+      </c>
+      <c r="BB142">
+        <v>1.35</v>
+      </c>
+      <c r="BC142">
+        <v>2</v>
+      </c>
+      <c r="BD142">
+        <v>2.05</v>
+      </c>
+      <c r="BE142">
+        <v>2.7</v>
+      </c>
+      <c r="BF142">
+        <v>5</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>5</v>
+      </c>
+      <c r="BI142">
+        <v>5</v>
+      </c>
+      <c r="BJ142">
+        <v>10</v>
+      </c>
+      <c r="BK142">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,15 @@
     <t>['70', '78']</t>
   </si>
   <si>
+    <t>['34', '80']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['35', '70']</t>
+  </si>
+  <si>
     <t>['28', '40', '59']</t>
   </si>
   <si>
@@ -703,9 +712,6 @@
     <t>['17', '50']</t>
   </si>
   <si>
-    <t>['11']</t>
-  </si>
-  <si>
     <t>['13', '86']</t>
   </si>
   <si>
@@ -791,6 +797,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['20', '52']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1778,7 +1787,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2056,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT5">
         <v>1.2</v>
@@ -2351,7 +2360,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2438,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT7">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2629,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT8">
         <v>1.29</v>
@@ -2733,7 +2742,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2820,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
+        <v>1.2</v>
+      </c>
+      <c r="AT9">
         <v>1.07</v>
-      </c>
-      <c r="AT9">
-        <v>0.93</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3014,7 +3023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3115,7 +3124,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3202,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT11">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3306,7 +3315,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3396,7 +3405,7 @@
         <v>1.67</v>
       </c>
       <c r="AT12">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU12">
         <v>1.21</v>
@@ -3584,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT13">
         <v>1.29</v>
@@ -3688,7 +3697,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3775,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT14">
         <v>1.67</v>
@@ -4070,7 +4079,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4160,7 +4169,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU16">
         <v>1.96</v>
@@ -4261,7 +4270,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4348,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT17">
         <v>1.64</v>
@@ -4452,7 +4461,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4730,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4834,7 +4843,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4924,7 +4933,7 @@
         <v>1.07</v>
       </c>
       <c r="AT20">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>1.7</v>
@@ -5025,7 +5034,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5112,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT21">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU21">
         <v>1.56</v>
@@ -5216,7 +5225,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5407,7 +5416,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5598,7 +5607,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5685,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT24">
         <v>1.27</v>
@@ -5980,7 +5989,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6070,7 +6079,7 @@
         <v>2.23</v>
       </c>
       <c r="AT26">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU26">
         <v>1.22</v>
@@ -6171,7 +6180,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6258,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT27">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU27">
         <v>1.39</v>
@@ -6362,7 +6371,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6449,10 +6458,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT28">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6643,7 +6652,7 @@
         <v>1.07</v>
       </c>
       <c r="AT29">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6744,7 +6753,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6831,10 +6840,10 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT30">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU30">
         <v>1.42</v>
@@ -6935,7 +6944,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7022,7 +7031,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT31">
         <v>1.2</v>
@@ -7126,7 +7135,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7213,10 +7222,10 @@
         <v>0.33</v>
       </c>
       <c r="AS32">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT32">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU32">
         <v>1.45</v>
@@ -7317,7 +7326,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7404,10 +7413,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU33">
         <v>1.35</v>
@@ -7598,7 +7607,7 @@
         <v>2.23</v>
       </c>
       <c r="AT34">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU34">
         <v>1.28</v>
@@ -7699,7 +7708,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7786,7 +7795,7 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT35">
         <v>1.67</v>
@@ -7890,7 +7899,7 @@
         <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7977,10 +7986,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT36">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU36">
         <v>1.52</v>
@@ -8081,7 +8090,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8168,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT37">
         <v>1.29</v>
@@ -8272,7 +8281,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8362,7 +8371,7 @@
         <v>1.67</v>
       </c>
       <c r="AT38">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU38">
         <v>1.21</v>
@@ -8463,7 +8472,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8744,7 +8753,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.96</v>
@@ -8845,7 +8854,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9036,7 +9045,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9227,7 +9236,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9418,7 +9427,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9505,7 +9514,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
         <v>1.64</v>
@@ -9696,10 +9705,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT45">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU45">
         <v>1.39</v>
@@ -9800,7 +9809,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9991,7 +10000,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10078,7 +10087,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT47">
         <v>1.27</v>
@@ -10269,10 +10278,10 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT48">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU48">
         <v>1.7</v>
@@ -10373,7 +10382,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10463,7 +10472,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU49">
         <v>1.34</v>
@@ -10946,7 +10955,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11033,7 +11042,7 @@
         <v>1.8</v>
       </c>
       <c r="AS52">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT52">
         <v>1.64</v>
@@ -11137,7 +11146,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11227,7 +11236,7 @@
         <v>1.07</v>
       </c>
       <c r="AT53">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU53">
         <v>1.36</v>
@@ -11328,7 +11337,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11519,7 +11528,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11606,10 +11615,10 @@
         <v>0.25</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT55">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU55">
         <v>1.54</v>
@@ -11901,7 +11910,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11988,7 +11997,7 @@
         <v>1.8</v>
       </c>
       <c r="AS57">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT57">
         <v>1.29</v>
@@ -12179,10 +12188,10 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT58">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12283,7 +12292,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12370,10 +12379,10 @@
         <v>1.2</v>
       </c>
       <c r="AS59">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT59">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU59">
         <v>0.95</v>
@@ -12564,7 +12573,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU60">
         <v>1.39</v>
@@ -12752,10 +12761,10 @@
         <v>0.8</v>
       </c>
       <c r="AS61">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT61">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU61">
         <v>1.78</v>
@@ -12856,7 +12865,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13047,7 +13056,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13134,7 +13143,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
         <v>1.67</v>
@@ -13238,7 +13247,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13328,7 +13337,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU64">
         <v>1.49</v>
@@ -13429,7 +13438,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13516,7 +13525,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT65">
         <v>1.64</v>
@@ -13710,7 +13719,7 @@
         <v>2.23</v>
       </c>
       <c r="AT66">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU66">
         <v>1.28</v>
@@ -13811,7 +13820,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13898,7 +13907,7 @@
         <v>0.83</v>
       </c>
       <c r="AS67">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT67">
         <v>1.2</v>
@@ -14002,7 +14011,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14092,7 +14101,7 @@
         <v>1.07</v>
       </c>
       <c r="AT68">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU68">
         <v>1.32</v>
@@ -14193,7 +14202,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14283,7 +14292,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU69">
         <v>1.79</v>
@@ -14384,7 +14393,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14471,7 +14480,7 @@
         <v>0.71</v>
       </c>
       <c r="AS70">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT70">
         <v>1.27</v>
@@ -14575,7 +14584,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14853,10 +14862,10 @@
         <v>0.71</v>
       </c>
       <c r="AS72">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT72">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU72">
         <v>1.65</v>
@@ -15044,10 +15053,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT73">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU73">
         <v>1.23</v>
@@ -15148,7 +15157,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15235,10 +15244,10 @@
         <v>1.29</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT74">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -15339,7 +15348,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15429,7 +15438,7 @@
         <v>2.23</v>
       </c>
       <c r="AT75">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15617,7 +15626,7 @@
         <v>2.14</v>
       </c>
       <c r="AS76">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT76">
         <v>1.67</v>
@@ -15912,7 +15921,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -15999,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT78">
         <v>1.27</v>
@@ -16766,7 +16775,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU82">
         <v>1.5</v>
@@ -16954,10 +16963,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
+        <v>1.2</v>
+      </c>
+      <c r="AT83">
         <v>1.07</v>
-      </c>
-      <c r="AT83">
-        <v>0.93</v>
       </c>
       <c r="AU83">
         <v>1.05</v>
@@ -17058,7 +17067,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17145,10 +17154,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT84">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU84">
         <v>1.69</v>
@@ -17249,7 +17258,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17336,7 +17345,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT85">
         <v>1.2</v>
@@ -17440,7 +17449,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17530,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU86">
         <v>1.55</v>
@@ -17631,7 +17640,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18013,7 +18022,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>12</v>
@@ -18100,10 +18109,10 @@
         <v>1.89</v>
       </c>
       <c r="AS89">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT89">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU89">
         <v>1.23</v>
@@ -18291,7 +18300,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT90">
         <v>1.29</v>
@@ -18485,7 +18494,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU91">
         <v>1.71</v>
@@ -18586,7 +18595,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18673,10 +18682,10 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT92">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU92">
         <v>1.66</v>
@@ -18777,7 +18786,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18968,7 +18977,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19159,7 +19168,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19246,10 +19255,10 @@
         <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT95">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU95">
         <v>1.53</v>
@@ -19350,7 +19359,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19437,7 +19446,7 @@
         <v>1.11</v>
       </c>
       <c r="AS96">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT96">
         <v>1.29</v>
@@ -19541,7 +19550,7 @@
         <v>82</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19822,7 +19831,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -19923,7 +19932,7 @@
         <v>129</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20201,10 +20210,10 @@
         <v>0.78</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT100">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU100">
         <v>1.51</v>
@@ -20305,7 +20314,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20392,10 +20401,10 @@
         <v>0.22</v>
       </c>
       <c r="AS101">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT101">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU101">
         <v>1.09</v>
@@ -20496,7 +20505,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20583,10 +20592,10 @@
         <v>1.44</v>
       </c>
       <c r="AS102">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT102">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU102">
         <v>1.19</v>
@@ -20774,10 +20783,10 @@
         <v>1.67</v>
       </c>
       <c r="AS103">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT103">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU103">
         <v>1.6</v>
@@ -20965,10 +20974,10 @@
         <v>0.5</v>
       </c>
       <c r="AS104">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT104">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU104">
         <v>1.52</v>
@@ -21159,7 +21168,7 @@
         <v>2.23</v>
       </c>
       <c r="AT105">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU105">
         <v>1.31</v>
@@ -21347,7 +21356,7 @@
         <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT106">
         <v>1.67</v>
@@ -21541,7 +21550,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU107">
         <v>1.63</v>
@@ -21642,7 +21651,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21729,10 +21738,10 @@
         <v>1.82</v>
       </c>
       <c r="AS108">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU108">
         <v>1.59</v>
@@ -21833,7 +21842,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22024,7 +22033,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22111,7 +22120,7 @@
         <v>1.78</v>
       </c>
       <c r="AS110">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT110">
         <v>1.64</v>
@@ -22215,7 +22224,7 @@
         <v>114</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22406,7 +22415,7 @@
         <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22496,7 +22505,7 @@
         <v>1.67</v>
       </c>
       <c r="AT112">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU112">
         <v>1.35</v>
@@ -22597,7 +22606,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22788,7 +22797,7 @@
         <v>82</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22875,7 +22884,7 @@
         <v>1.64</v>
       </c>
       <c r="AS114">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT114">
         <v>1.67</v>
@@ -22979,7 +22988,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -23170,7 +23179,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23448,7 +23457,7 @@
         <v>1.25</v>
       </c>
       <c r="AS117">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
         <v>1.2</v>
@@ -23552,7 +23561,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23639,7 +23648,7 @@
         <v>1.82</v>
       </c>
       <c r="AS118">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT118">
         <v>1.64</v>
@@ -23743,7 +23752,7 @@
         <v>82</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23833,7 +23842,7 @@
         <v>1.07</v>
       </c>
       <c r="AT119">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU119">
         <v>1.17</v>
@@ -24021,10 +24030,10 @@
         <v>1.75</v>
       </c>
       <c r="AS120">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU120">
         <v>1.16</v>
@@ -24212,10 +24221,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT121">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU121">
         <v>1.13</v>
@@ -24316,7 +24325,7 @@
         <v>82</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24403,7 +24412,7 @@
         <v>1.23</v>
       </c>
       <c r="AS122">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT122">
         <v>1.27</v>
@@ -24507,7 +24516,7 @@
         <v>82</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24698,7 +24707,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24788,7 +24797,7 @@
         <v>2.23</v>
       </c>
       <c r="AT124">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU124">
         <v>1.27</v>
@@ -25552,7 +25561,7 @@
         <v>1</v>
       </c>
       <c r="AT128">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25653,7 +25662,7 @@
         <v>82</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25743,7 +25752,7 @@
         <v>1.67</v>
       </c>
       <c r="AT129">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU129">
         <v>1.33</v>
@@ -25844,7 +25853,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -25931,7 +25940,7 @@
         <v>1.15</v>
       </c>
       <c r="AS130">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT130">
         <v>1.2</v>
@@ -26125,7 +26134,7 @@
         <v>1.07</v>
       </c>
       <c r="AT131">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU131">
         <v>1.16</v>
@@ -26226,7 +26235,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26313,10 +26322,10 @@
         <v>1.55</v>
       </c>
       <c r="AS132">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT132">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU132">
         <v>1.13</v>
@@ -26417,7 +26426,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>11</v>
@@ -26504,7 +26513,7 @@
         <v>1.15</v>
       </c>
       <c r="AS133">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT133">
         <v>1.29</v>
@@ -26608,7 +26617,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26695,10 +26704,10 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT134">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU134">
         <v>1.52</v>
@@ -26886,10 +26895,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT135">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -26990,7 +26999,7 @@
         <v>112</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27077,7 +27086,7 @@
         <v>1.62</v>
       </c>
       <c r="AS136">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT136">
         <v>1.67</v>
@@ -27372,7 +27381,7 @@
         <v>94</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27563,7 +27572,7 @@
         <v>118</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>13</v>
@@ -28032,10 +28041,10 @@
         <v>0.62</v>
       </c>
       <c r="AS141">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT141">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU141">
         <v>1.13</v>
@@ -28223,10 +28232,10 @@
         <v>1.42</v>
       </c>
       <c r="AS142">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT142">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU142">
         <v>1.52</v>
@@ -28278,6 +28287,961 @@
       </c>
       <c r="BK142">
         <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2470875</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45009.70833333334</v>
+      </c>
+      <c r="F143">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" t="s">
+        <v>67</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>177</v>
+      </c>
+      <c r="P143" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>4</v>
+      </c>
+      <c r="S143">
+        <v>7</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>3.5</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143">
+        <v>2.63</v>
+      </c>
+      <c r="Z143">
+        <v>1.44</v>
+      </c>
+      <c r="AA143">
+        <v>7</v>
+      </c>
+      <c r="AB143">
+        <v>1.1</v>
+      </c>
+      <c r="AC143">
+        <v>2.1</v>
+      </c>
+      <c r="AD143">
+        <v>3.4</v>
+      </c>
+      <c r="AE143">
+        <v>2.85</v>
+      </c>
+      <c r="AF143">
+        <v>1</v>
+      </c>
+      <c r="AG143">
+        <v>10.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.22</v>
+      </c>
+      <c r="AI143">
+        <v>3.8</v>
+      </c>
+      <c r="AJ143">
+        <v>1.68</v>
+      </c>
+      <c r="AK143">
+        <v>1.98</v>
+      </c>
+      <c r="AL143">
+        <v>1.67</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.4</v>
+      </c>
+      <c r="AO143">
+        <v>1.29</v>
+      </c>
+      <c r="AP143">
+        <v>1.65</v>
+      </c>
+      <c r="AQ143">
+        <v>1.07</v>
+      </c>
+      <c r="AR143">
+        <v>1.38</v>
+      </c>
+      <c r="AS143">
+        <v>1.2</v>
+      </c>
+      <c r="AT143">
+        <v>1.29</v>
+      </c>
+      <c r="AU143">
+        <v>1.13</v>
+      </c>
+      <c r="AV143">
+        <v>1.14</v>
+      </c>
+      <c r="AW143">
+        <v>2.27</v>
+      </c>
+      <c r="AX143">
+        <v>1.5</v>
+      </c>
+      <c r="AY143">
+        <v>6</v>
+      </c>
+      <c r="AZ143">
+        <v>3</v>
+      </c>
+      <c r="BA143">
+        <v>1.48</v>
+      </c>
+      <c r="BB143">
+        <v>1.93</v>
+      </c>
+      <c r="BC143">
+        <v>2.5</v>
+      </c>
+      <c r="BD143">
+        <v>3.5</v>
+      </c>
+      <c r="BE143">
+        <v>5.1</v>
+      </c>
+      <c r="BF143">
+        <v>8</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>7</v>
+      </c>
+      <c r="BI143">
+        <v>4</v>
+      </c>
+      <c r="BJ143">
+        <v>15</v>
+      </c>
+      <c r="BK143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2470873</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F144">
+        <v>30</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>65</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>82</v>
+      </c>
+      <c r="P144" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>7</v>
+      </c>
+      <c r="S144">
+        <v>8</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>2.25</v>
+      </c>
+      <c r="V144">
+        <v>3.4</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>3.25</v>
+      </c>
+      <c r="Y144">
+        <v>2.5</v>
+      </c>
+      <c r="Z144">
+        <v>1.5</v>
+      </c>
+      <c r="AA144">
+        <v>6.5</v>
+      </c>
+      <c r="AB144">
+        <v>1.11</v>
+      </c>
+      <c r="AC144">
+        <v>1.97</v>
+      </c>
+      <c r="AD144">
+        <v>3.45</v>
+      </c>
+      <c r="AE144">
+        <v>3.35</v>
+      </c>
+      <c r="AF144">
+        <v>1.03</v>
+      </c>
+      <c r="AG144">
+        <v>14.75</v>
+      </c>
+      <c r="AH144">
+        <v>1.22</v>
+      </c>
+      <c r="AI144">
+        <v>4</v>
+      </c>
+      <c r="AJ144">
+        <v>1.61</v>
+      </c>
+      <c r="AK144">
+        <v>2.05</v>
+      </c>
+      <c r="AL144">
+        <v>1.62</v>
+      </c>
+      <c r="AM144">
+        <v>2.2</v>
+      </c>
+      <c r="AN144">
+        <v>1.33</v>
+      </c>
+      <c r="AO144">
+        <v>1.22</v>
+      </c>
+      <c r="AP144">
+        <v>1.63</v>
+      </c>
+      <c r="AQ144">
+        <v>0.86</v>
+      </c>
+      <c r="AR144">
+        <v>0.93</v>
+      </c>
+      <c r="AS144">
+        <v>0.8</v>
+      </c>
+      <c r="AT144">
+        <v>1.07</v>
+      </c>
+      <c r="AU144">
+        <v>1.22</v>
+      </c>
+      <c r="AV144">
+        <v>1.05</v>
+      </c>
+      <c r="AW144">
+        <v>2.27</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>1.27</v>
+      </c>
+      <c r="BB144">
+        <v>1.5</v>
+      </c>
+      <c r="BC144">
+        <v>1.85</v>
+      </c>
+      <c r="BD144">
+        <v>2.45</v>
+      </c>
+      <c r="BE144">
+        <v>3.4</v>
+      </c>
+      <c r="BF144">
+        <v>4</v>
+      </c>
+      <c r="BG144">
+        <v>5</v>
+      </c>
+      <c r="BH144">
+        <v>7</v>
+      </c>
+      <c r="BI144">
+        <v>6</v>
+      </c>
+      <c r="BJ144">
+        <v>11</v>
+      </c>
+      <c r="BK144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2470874</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145" t="s">
+        <v>82</v>
+      </c>
+      <c r="P145" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q145">
+        <v>6</v>
+      </c>
+      <c r="R145">
+        <v>7</v>
+      </c>
+      <c r="S145">
+        <v>13</v>
+      </c>
+      <c r="T145">
+        <v>2.4</v>
+      </c>
+      <c r="U145">
+        <v>2.3</v>
+      </c>
+      <c r="V145">
+        <v>3.75</v>
+      </c>
+      <c r="W145">
+        <v>1.3</v>
+      </c>
+      <c r="X145">
+        <v>3.4</v>
+      </c>
+      <c r="Y145">
+        <v>2.38</v>
+      </c>
+      <c r="Z145">
+        <v>1.53</v>
+      </c>
+      <c r="AA145">
+        <v>5.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.14</v>
+      </c>
+      <c r="AC145">
+        <v>1.9</v>
+      </c>
+      <c r="AD145">
+        <v>3.4</v>
+      </c>
+      <c r="AE145">
+        <v>3.6</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>14.75</v>
+      </c>
+      <c r="AH145">
+        <v>1.2</v>
+      </c>
+      <c r="AI145">
+        <v>4.1</v>
+      </c>
+      <c r="AJ145">
+        <v>1.61</v>
+      </c>
+      <c r="AK145">
+        <v>2.05</v>
+      </c>
+      <c r="AL145">
+        <v>1.53</v>
+      </c>
+      <c r="AM145">
+        <v>2.38</v>
+      </c>
+      <c r="AN145">
+        <v>1.25</v>
+      </c>
+      <c r="AO145">
+        <v>1.22</v>
+      </c>
+      <c r="AP145">
+        <v>1.78</v>
+      </c>
+      <c r="AQ145">
+        <v>1.5</v>
+      </c>
+      <c r="AR145">
+        <v>0.79</v>
+      </c>
+      <c r="AS145">
+        <v>1.47</v>
+      </c>
+      <c r="AT145">
+        <v>0.8</v>
+      </c>
+      <c r="AU145">
+        <v>1.71</v>
+      </c>
+      <c r="AV145">
+        <v>1.28</v>
+      </c>
+      <c r="AW145">
+        <v>2.99</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>1.53</v>
+      </c>
+      <c r="BC145">
+        <v>1.93</v>
+      </c>
+      <c r="BD145">
+        <v>2.33</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>2</v>
+      </c>
+      <c r="BG145">
+        <v>4</v>
+      </c>
+      <c r="BH145">
+        <v>13</v>
+      </c>
+      <c r="BI145">
+        <v>6</v>
+      </c>
+      <c r="BJ145">
+        <v>15</v>
+      </c>
+      <c r="BK145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2470876</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>178</v>
+      </c>
+      <c r="P146" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>9</v>
+      </c>
+      <c r="S146">
+        <v>14</v>
+      </c>
+      <c r="T146">
+        <v>2.75</v>
+      </c>
+      <c r="U146">
+        <v>2.25</v>
+      </c>
+      <c r="V146">
+        <v>3.4</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>3.25</v>
+      </c>
+      <c r="Y146">
+        <v>2.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>6.5</v>
+      </c>
+      <c r="AB146">
+        <v>1.11</v>
+      </c>
+      <c r="AC146">
+        <v>2.15</v>
+      </c>
+      <c r="AD146">
+        <v>3.3</v>
+      </c>
+      <c r="AE146">
+        <v>3</v>
+      </c>
+      <c r="AF146">
+        <v>1.03</v>
+      </c>
+      <c r="AG146">
+        <v>14.5</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>4</v>
+      </c>
+      <c r="AJ146">
+        <v>1.61</v>
+      </c>
+      <c r="AK146">
+        <v>2.05</v>
+      </c>
+      <c r="AL146">
+        <v>1.62</v>
+      </c>
+      <c r="AM146">
+        <v>2.2</v>
+      </c>
+      <c r="AN146">
+        <v>1.3</v>
+      </c>
+      <c r="AO146">
+        <v>1.22</v>
+      </c>
+      <c r="AP146">
+        <v>1.66</v>
+      </c>
+      <c r="AQ146">
+        <v>1.43</v>
+      </c>
+      <c r="AR146">
+        <v>1.31</v>
+      </c>
+      <c r="AS146">
+        <v>1.4</v>
+      </c>
+      <c r="AT146">
+        <v>1.29</v>
+      </c>
+      <c r="AU146">
+        <v>1.53</v>
+      </c>
+      <c r="AV146">
+        <v>1.12</v>
+      </c>
+      <c r="AW146">
+        <v>2.65</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>1.49</v>
+      </c>
+      <c r="BD146">
+        <v>1.92</v>
+      </c>
+      <c r="BE146">
+        <v>2</v>
+      </c>
+      <c r="BF146">
+        <v>8</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>4</v>
+      </c>
+      <c r="BJ146">
+        <v>12</v>
+      </c>
+      <c r="BK146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2470877</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F147">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" t="s">
+        <v>66</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>179</v>
+      </c>
+      <c r="P147" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q147">
+        <v>5</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>7</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>2.25</v>
+      </c>
+      <c r="V147">
+        <v>3.4</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>3.25</v>
+      </c>
+      <c r="Y147">
+        <v>2.5</v>
+      </c>
+      <c r="Z147">
+        <v>1.5</v>
+      </c>
+      <c r="AA147">
+        <v>6.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.11</v>
+      </c>
+      <c r="AC147">
+        <v>2</v>
+      </c>
+      <c r="AD147">
+        <v>3.35</v>
+      </c>
+      <c r="AE147">
+        <v>3.2</v>
+      </c>
+      <c r="AF147">
+        <v>1.03</v>
+      </c>
+      <c r="AG147">
+        <v>15</v>
+      </c>
+      <c r="AH147">
+        <v>1.22</v>
+      </c>
+      <c r="AI147">
+        <v>4</v>
+      </c>
+      <c r="AJ147">
+        <v>1.61</v>
+      </c>
+      <c r="AK147">
+        <v>2.05</v>
+      </c>
+      <c r="AL147">
+        <v>1.62</v>
+      </c>
+      <c r="AM147">
+        <v>2.2</v>
+      </c>
+      <c r="AN147">
+        <v>1.3</v>
+      </c>
+      <c r="AO147">
+        <v>1.22</v>
+      </c>
+      <c r="AP147">
+        <v>1.66</v>
+      </c>
+      <c r="AQ147">
+        <v>2.46</v>
+      </c>
+      <c r="AR147">
+        <v>1.71</v>
+      </c>
+      <c r="AS147">
+        <v>2.36</v>
+      </c>
+      <c r="AT147">
+        <v>1.67</v>
+      </c>
+      <c r="AU147">
+        <v>1.51</v>
+      </c>
+      <c r="AV147">
+        <v>1.27</v>
+      </c>
+      <c r="AW147">
+        <v>2.78</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>1.56</v>
+      </c>
+      <c r="BC147">
+        <v>1.97</v>
+      </c>
+      <c r="BD147">
+        <v>2.45</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>9</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>6</v>
+      </c>
+      <c r="BI147">
+        <v>6</v>
+      </c>
+      <c r="BJ147">
+        <v>15</v>
+      </c>
+      <c r="BK147">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT2" t="n">
         <v>1.4</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.67</v>
@@ -1512,7 +1512,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.47</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT9" t="n">
         <v>1.07</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.36</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>1.86</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU15" t="n">
         <v>1.16</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT16" t="n">
         <v>1.29</v>
@@ -3948,7 +3948,7 @@
         <v>1.47</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU17" t="n">
         <v>1.8</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU18" t="n">
         <v>1.72</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT19" t="n">
         <v>1.4</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.7</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU23" t="n">
         <v>2.06</v>
@@ -5369,7 +5369,7 @@
         <v>0.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU24" t="n">
         <v>1.78</v>
@@ -5569,10 +5569,10 @@
         <v>1.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU25" t="n">
         <v>1.39</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT26" t="n">
         <v>1.29</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT28" t="n">
         <v>1.67</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>1.07</v>
@@ -6587,7 +6587,7 @@
         <v>1.4</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU30" t="n">
         <v>1.42</v>
@@ -6790,7 +6790,7 @@
         <v>2.36</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU31" t="n">
         <v>1.91</v>
@@ -6993,7 +6993,7 @@
         <v>2.36</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT34" t="n">
         <v>1.07</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.03</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU39" t="n">
         <v>2.05</v>
@@ -8614,7 +8614,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -8820,7 +8820,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU41" t="n">
         <v>1.25</v>
@@ -9020,10 +9020,10 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU42" t="n">
         <v>1.5</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.47</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU44" t="n">
         <v>1.03</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT46" t="n">
         <v>1.67</v>
@@ -10038,7 +10038,7 @@
         <v>1.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>1.58</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -10847,10 +10847,10 @@
         <v>0.4</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU51" t="n">
         <v>1.57</v>
@@ -11053,7 +11053,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>2.2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT54" t="n">
         <v>1.67</v>
@@ -11662,7 +11662,7 @@
         <v>1.47</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU55" t="n">
         <v>1.54</v>
@@ -11862,10 +11862,10 @@
         <v>0.8</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU56" t="n">
         <v>1.37</v>
@@ -12068,7 +12068,7 @@
         <v>0.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.43</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT59" t="n">
         <v>1.29</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.91</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT64" t="n">
         <v>1.29</v>
@@ -13692,7 +13692,7 @@
         <v>0.8</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU65" t="n">
         <v>1.32</v>
@@ -13892,10 +13892,10 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU66" t="n">
         <v>1.28</v>
@@ -14095,10 +14095,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>0.95</v>
@@ -14298,7 +14298,7 @@
         <v>1.86</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>1.67</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT69" t="n">
         <v>1.07</v>
@@ -14707,7 +14707,7 @@
         <v>2.36</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU70" t="n">
         <v>1.65</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU71" t="n">
         <v>1.3</v>
@@ -15316,7 +15316,7 @@
         <v>0.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU73" t="n">
         <v>1.23</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT75" t="n">
         <v>1.4</v>
@@ -16128,7 +16128,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.33</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU78" t="n">
         <v>0.96</v>
@@ -16531,10 +16531,10 @@
         <v>1.43</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -16734,10 +16734,10 @@
         <v>1.14</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -16940,7 +16940,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU81" t="n">
         <v>1.37</v>
@@ -17140,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT82" t="n">
         <v>1.67</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT83" t="n">
         <v>1.07</v>
@@ -17752,7 +17752,7 @@
         <v>1.47</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17952,10 +17952,10 @@
         <v>0.29</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU86" t="n">
         <v>1.55</v>
@@ -18155,10 +18155,10 @@
         <v>1.63</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU87" t="n">
         <v>1.28</v>
@@ -18358,7 +18358,7 @@
         <v>1.88</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT88" t="n">
         <v>1.67</v>
@@ -18767,7 +18767,7 @@
         <v>2.36</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU90" t="n">
         <v>1.44</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT91" t="n">
         <v>1.29</v>
@@ -19173,7 +19173,7 @@
         <v>1.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU92" t="n">
         <v>1.66</v>
@@ -19373,7 +19373,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
         <v>1.67</v>
@@ -19576,10 +19576,10 @@
         <v>0.89</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU94" t="n">
         <v>1.49</v>
@@ -19982,10 +19982,10 @@
         <v>1.11</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU96" t="n">
         <v>1.04</v>
@@ -20188,7 +20188,7 @@
         <v>1.67</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU97" t="n">
         <v>1.41</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT98" t="n">
         <v>1.67</v>
@@ -20591,10 +20591,10 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU99" t="n">
         <v>1.19</v>
@@ -20997,10 +20997,10 @@
         <v>0.22</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.09</v>
@@ -21609,7 +21609,7 @@
         <v>2.36</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU104" t="n">
         <v>1.52</v>
@@ -21809,7 +21809,7 @@
         <v>0.7</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT105" t="n">
         <v>1.07</v>
@@ -22215,10 +22215,10 @@
         <v>0.45</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU107" t="n">
         <v>1.63</v>
@@ -22621,10 +22621,10 @@
         <v>1.18</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU109" t="n">
         <v>1.44</v>
@@ -22824,10 +22824,10 @@
         <v>1.78</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU110" t="n">
         <v>1.1</v>
@@ -23027,10 +23027,10 @@
         <v>1.27</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU111" t="n">
         <v>1.19</v>
@@ -23433,10 +23433,10 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU113" t="n">
         <v>1.27</v>
@@ -23839,10 +23839,10 @@
         <v>1.1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24042,10 +24042,10 @@
         <v>1.7</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU116" t="n">
         <v>1.4</v>
@@ -24248,7 +24248,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU117" t="n">
         <v>1.54</v>
@@ -24451,7 +24451,7 @@
         <v>1.47</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU118" t="n">
         <v>1.58</v>
@@ -24651,10 +24651,10 @@
         <v>0.42</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU119" t="n">
         <v>1.17</v>
@@ -24854,7 +24854,7 @@
         <v>1.75</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT120" t="n">
         <v>1.67</v>
@@ -25263,7 +25263,7 @@
         <v>0.8</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU122" t="n">
         <v>1.14</v>
@@ -25463,10 +25463,10 @@
         <v>1.09</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU123" t="n">
         <v>1.43</v>
@@ -25666,7 +25666,7 @@
         <v>1.36</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT124" t="n">
         <v>1.29</v>
@@ -26072,10 +26072,10 @@
         <v>1.75</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU126" t="n">
         <v>1.56</v>
@@ -26275,10 +26275,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.27</v>
@@ -26478,7 +26478,7 @@
         <v>1.6</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT128" t="n">
         <v>1.4</v>
@@ -26887,7 +26887,7 @@
         <v>2.36</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU130" t="n">
         <v>1.55</v>
@@ -27087,7 +27087,7 @@
         <v>0.83</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT131" t="n">
         <v>1.07</v>
@@ -27290,7 +27290,7 @@
         <v>1.55</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT132" t="n">
         <v>1.4</v>
@@ -27496,7 +27496,7 @@
         <v>1.47</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU133" t="n">
         <v>1.66</v>
@@ -28308,7 +28308,7 @@
         <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU137" t="n">
         <v>1.32</v>
@@ -28508,10 +28508,10 @@
         <v>1.07</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU138" t="n">
         <v>1.3</v>
@@ -28711,7 +28711,7 @@
         <v>1.71</v>
       </c>
       <c r="AS139" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT139" t="n">
         <v>1.67</v>
@@ -28914,10 +28914,10 @@
         <v>1.36</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.53</v>
@@ -29120,7 +29120,7 @@
         <v>0.8</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU141" t="n">
         <v>1.13</v>
@@ -29523,7 +29523,7 @@
         <v>1.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT143" t="n">
         <v>1.29</v>
@@ -29932,7 +29932,7 @@
         <v>1.47</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU145" t="n">
         <v>1.71</v>
@@ -30538,7 +30538,7 @@
         <v>1.29</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT148" t="n">
         <v>1.4</v>
@@ -30593,6 +30593,1021 @@
       </c>
       <c r="BK148" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2470882</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>31</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Albion Rovers</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['62', '68']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>12</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>14</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V149" t="n">
+        <v>4</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2470878</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>31</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose Athletic</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>8</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>11</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2470879</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>31</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['71', '78']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R151" t="n">
+        <v>7</v>
+      </c>
+      <c r="S151" t="n">
+        <v>9</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2470880</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Annan Athletic</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5</v>
+      </c>
+      <c r="S152" t="n">
+        <v>6</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2470881</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Stirling Albion</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['15', '26', '52']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>3</v>
+      </c>
+      <c r="R153" t="n">
+        <v>7</v>
+      </c>
+      <c r="S153" t="n">
+        <v>10</v>
+      </c>
+      <c r="T153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT13" t="n">
         <v>1.4</v>
@@ -3745,7 +3745,7 @@
         <v>1.44</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU16" t="n">
         <v>1.96</v>
@@ -5775,7 +5775,7 @@
         <v>1.93</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.22</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT31" t="n">
         <v>1.13</v>
@@ -6990,7 +6990,7 @@
         <v>0.33</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT32" t="n">
         <v>0.75</v>
@@ -7196,7 +7196,7 @@
         <v>1.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.35</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
         <v>1.67</v>
@@ -10444,7 +10444,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU49" t="n">
         <v>1.34</v>
@@ -12474,7 +12474,7 @@
         <v>1.13</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU59" t="n">
         <v>0.95</v>
@@ -12877,7 +12877,7 @@
         <v>0.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT61" t="n">
         <v>1.07</v>
@@ -13489,7 +13489,7 @@
         <v>1.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -14704,7 +14704,7 @@
         <v>0.71</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT70" t="n">
         <v>1.38</v>
@@ -15519,7 +15519,7 @@
         <v>1.47</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15922,7 +15922,7 @@
         <v>2.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT76" t="n">
         <v>1.67</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT90" t="n">
         <v>1.4</v>
@@ -18970,7 +18970,7 @@
         <v>1.44</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.71</v>
@@ -21406,7 +21406,7 @@
         <v>1.4</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU103" t="n">
         <v>1.6</v>
@@ -21606,7 +21606,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT104" t="n">
         <v>0.75</v>
@@ -25060,7 +25060,7 @@
         <v>0.8</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU121" t="n">
         <v>1.13</v>
@@ -25669,7 +25669,7 @@
         <v>1.93</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU124" t="n">
         <v>1.27</v>
@@ -26884,7 +26884,7 @@
         <v>1.15</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT130" t="n">
         <v>1.13</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT134" t="n">
         <v>1.07</v>
@@ -27902,7 +27902,7 @@
         <v>1.47</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -29320,7 +29320,7 @@
         <v>1.42</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT142" t="n">
         <v>1.4</v>
@@ -29526,7 +29526,7 @@
         <v>1.13</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU143" t="n">
         <v>1.13</v>
@@ -30335,7 +30335,7 @@
         <v>1.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT147" t="n">
         <v>1.67</v>
@@ -31608,6 +31608,209 @@
       </c>
       <c r="BK153" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2470846</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45020.65625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>24</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Stirling Albion</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V154" t="n">
+        <v>4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT5" t="n">
         <v>1.13</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
         <v>1.38</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT8" t="n">
         <v>1.4</v>
@@ -2324,7 +2324,7 @@
         <v>1.13</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU12" t="n">
         <v>1.21</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT13" t="n">
         <v>1.4</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU14" t="n">
         <v>1.63</v>
@@ -3745,7 +3745,7 @@
         <v>1.44</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU16" t="n">
         <v>1.96</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT17" t="n">
         <v>1.73</v>
@@ -4354,7 +4354,7 @@
         <v>1.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU19" t="n">
         <v>1.26</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU21" t="n">
         <v>1.56</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT24" t="n">
         <v>1.38</v>
@@ -5775,7 +5775,7 @@
         <v>1.93</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU26" t="n">
         <v>1.22</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU27" t="n">
         <v>1.39</v>
@@ -6181,7 +6181,7 @@
         <v>1.13</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU28" t="n">
         <v>1.25</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT30" t="n">
         <v>0.75</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT31" t="n">
         <v>1.13</v>
@@ -6990,7 +6990,7 @@
         <v>0.33</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT32" t="n">
         <v>0.75</v>
@@ -7193,10 +7193,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU33" t="n">
         <v>1.35</v>
@@ -7399,7 +7399,7 @@
         <v>1.93</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU34" t="n">
         <v>1.28</v>
@@ -7599,10 +7599,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU35" t="n">
         <v>1.24</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU36" t="n">
         <v>1.52</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU38" t="n">
         <v>1.21</v>
@@ -8617,7 +8617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
         <v>1.96</v>
@@ -8817,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT41" t="n">
         <v>1.13</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU45" t="n">
         <v>1.39</v>
@@ -9835,7 +9835,7 @@
         <v>1.44</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -10035,7 +10035,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT47" t="n">
         <v>1.38</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU48" t="n">
         <v>1.7</v>
@@ -10441,10 +10441,10 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.34</v>
@@ -11050,7 +11050,7 @@
         <v>1.8</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT52" t="n">
         <v>1.73</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU53" t="n">
         <v>1.36</v>
@@ -11459,7 +11459,7 @@
         <v>1.13</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU54" t="n">
         <v>1.55</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT55" t="n">
         <v>0.75</v>
@@ -12065,7 +12065,7 @@
         <v>1.8</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT57" t="n">
         <v>1.4</v>
@@ -12268,10 +12268,10 @@
         <v>1.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU58" t="n">
         <v>1.52</v>
@@ -12474,7 +12474,7 @@
         <v>1.13</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU59" t="n">
         <v>0.95</v>
@@ -12674,10 +12674,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.39</v>
@@ -12877,10 +12877,10 @@
         <v>0.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13283,10 +13283,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU63" t="n">
         <v>1.78</v>
@@ -13489,7 +13489,7 @@
         <v>1.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT65" t="n">
         <v>1.73</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU68" t="n">
         <v>1.32</v>
@@ -14504,7 +14504,7 @@
         <v>1.44</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14704,7 +14704,7 @@
         <v>0.71</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT70" t="n">
         <v>1.38</v>
@@ -14907,7 +14907,7 @@
         <v>1.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT71" t="n">
         <v>1.4</v>
@@ -15110,10 +15110,10 @@
         <v>0.71</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU72" t="n">
         <v>1.65</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -15516,10 +15516,10 @@
         <v>1.29</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15722,7 +15722,7 @@
         <v>1.93</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -15922,10 +15922,10 @@
         <v>2.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU76" t="n">
         <v>1.53</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT77" t="n">
         <v>1.38</v>
@@ -16937,7 +16937,7 @@
         <v>1.86</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT81" t="n">
         <v>1.73</v>
@@ -17143,7 +17143,7 @@
         <v>1.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>1.13</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU83" t="n">
         <v>1.05</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU84" t="n">
         <v>1.69</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
         <v>1.13</v>
@@ -18361,7 +18361,7 @@
         <v>1.93</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU88" t="n">
         <v>1.33</v>
@@ -18561,10 +18561,10 @@
         <v>1.89</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU89" t="n">
         <v>1.23</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT90" t="n">
         <v>1.4</v>
@@ -18970,7 +18970,7 @@
         <v>1.44</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU91" t="n">
         <v>1.71</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT92" t="n">
         <v>0.75</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU93" t="n">
         <v>1.22</v>
@@ -19779,10 +19779,10 @@
         <v>1.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -20185,7 +20185,7 @@
         <v>1.1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT97" t="n">
         <v>1.13</v>
@@ -20391,7 +20391,7 @@
         <v>1.44</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU98" t="n">
         <v>1.63</v>
@@ -20794,10 +20794,10 @@
         <v>0.78</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU100" t="n">
         <v>1.51</v>
@@ -21200,10 +21200,10 @@
         <v>1.44</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU102" t="n">
         <v>1.19</v>
@@ -21403,10 +21403,10 @@
         <v>1.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU103" t="n">
         <v>1.6</v>
@@ -21606,7 +21606,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT104" t="n">
         <v>0.75</v>
@@ -21812,7 +21812,7 @@
         <v>1.93</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU105" t="n">
         <v>1.31</v>
@@ -22012,10 +22012,10 @@
         <v>1.8</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU106" t="n">
         <v>1.53</v>
@@ -22418,10 +22418,10 @@
         <v>1.82</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU108" t="n">
         <v>1.59</v>
@@ -23230,10 +23230,10 @@
         <v>0.64</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU112" t="n">
         <v>1.35</v>
@@ -23636,10 +23636,10 @@
         <v>1.64</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU114" t="n">
         <v>1.16</v>
@@ -24245,7 +24245,7 @@
         <v>1.25</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT117" t="n">
         <v>1.13</v>
@@ -24448,7 +24448,7 @@
         <v>1.82</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT118" t="n">
         <v>1.73</v>
@@ -24857,7 +24857,7 @@
         <v>1.13</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU120" t="n">
         <v>1.16</v>
@@ -25057,10 +25057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.13</v>
@@ -25260,7 +25260,7 @@
         <v>1.23</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT122" t="n">
         <v>1.38</v>
@@ -25669,7 +25669,7 @@
         <v>1.93</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU124" t="n">
         <v>1.27</v>
@@ -25869,10 +25869,10 @@
         <v>1.75</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU125" t="n">
         <v>1.34</v>
@@ -26481,7 +26481,7 @@
         <v>1.13</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -26681,10 +26681,10 @@
         <v>1.62</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU129" t="n">
         <v>1.33</v>
@@ -26884,7 +26884,7 @@
         <v>1.15</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT130" t="n">
         <v>1.13</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -27293,7 +27293,7 @@
         <v>1.13</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU132" t="n">
         <v>1.13</v>
@@ -27493,7 +27493,7 @@
         <v>1.15</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT133" t="n">
         <v>1.4</v>
@@ -27696,10 +27696,10 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU134" t="n">
         <v>1.52</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -28102,10 +28102,10 @@
         <v>1.62</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU136" t="n">
         <v>1.53</v>
@@ -28305,7 +28305,7 @@
         <v>1.69</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT137" t="n">
         <v>1.73</v>
@@ -28714,7 +28714,7 @@
         <v>1.13</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU139" t="n">
         <v>1.42</v>
@@ -29117,7 +29117,7 @@
         <v>0.62</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT141" t="n">
         <v>0.75</v>
@@ -29320,10 +29320,10 @@
         <v>1.42</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU142" t="n">
         <v>1.52</v>
@@ -29526,7 +29526,7 @@
         <v>1.13</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU143" t="n">
         <v>1.13</v>
@@ -29726,10 +29726,10 @@
         <v>0.93</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU144" t="n">
         <v>1.22</v>
@@ -29929,7 +29929,7 @@
         <v>0.79</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT145" t="n">
         <v>0.75</v>
@@ -30132,10 +30132,10 @@
         <v>1.31</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU146" t="n">
         <v>1.53</v>
@@ -30335,10 +30335,10 @@
         <v>1.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU147" t="n">
         <v>1.51</v>
@@ -30541,7 +30541,7 @@
         <v>1.93</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU148" t="n">
         <v>1.27</v>
@@ -31756,10 +31756,10 @@
         <v>1.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU154" t="n">
         <v>1.55</v>
@@ -31811,6 +31811,1021 @@
       </c>
       <c r="BK154" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2470885</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>32</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose Athletic</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>4</v>
+      </c>
+      <c r="R155" t="n">
+        <v>5</v>
+      </c>
+      <c r="S155" t="n">
+        <v>9</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2470887</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>32</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>5</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2470886</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>32</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Stirling Albion</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['18', '33']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['15', '52']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>9</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2470883</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Albion Rovers</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['54', '58', '83']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>6</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>7</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2470884</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Scotland League Two</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>32</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Annan Athletic</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['2', '22', '27']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>7</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
